--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
+    <sheet name="Pileup Profiles" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Load</t>
   </si>
@@ -33,17 +34,75 @@
     <t>Tight Plane C.S. Area</t>
   </si>
   <si>
-    <t>Percent Difference</t>
+    <t>Loose Plane DCL/BCL Cut C.S. Area</t>
+  </si>
+  <si>
+    <t>Tight Plane DCL/BCL Cut C.S. Area</t>
+  </si>
+  <si>
+    <t>Average Loose Plane C.S. Area</t>
+  </si>
+  <si>
+    <t>Average Tight Plane C.S. Area</t>
+  </si>
+  <si>
+    <t>Average Loose Plane DCL/BCL Cut C.S. Area</t>
+  </si>
+  <si>
+    <t>Average Tight Plane DCL/BCL Cut C.S. Area</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>Percent Difference from no DCL/BCL Cut</t>
+  </si>
+  <si>
+    <t>Percent Difference b/w Loose and Tight</t>
+  </si>
+  <si>
+    <t>Percent Difference, DCL/BCL Cut b/w Loose and Tight Planes</t>
+  </si>
+  <si>
+    <t>Loose Plane DCL/BCL Cut C.S. Area, Height Threshold -0.004 µm</t>
+  </si>
+  <si>
+    <t>Tight Plane DCL/BCL Cut C.S. Area, Height Threshold -0.004 µm</t>
+  </si>
+  <si>
+    <t>Average Loose Plane DCL/BCL Cut C.S. Area, Height Threshold</t>
+  </si>
+  <si>
+    <t>Average Tight Plane DCL/BCL Cut C.S. Area, Height Threshold</t>
+  </si>
+  <si>
+    <t>Percent Difference, no height threshold</t>
+  </si>
+  <si>
+    <t>Hardness</t>
+  </si>
+  <si>
+    <t>Max Pileup 2, Original</t>
+  </si>
+  <si>
+    <t>Max Pileup 1, Original</t>
+  </si>
+  <si>
+    <t>Max Pileup 1, Planed and Cut</t>
+  </si>
+  <si>
+    <t>Max Pileup 2, Planed and Cut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +126,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,19 +159,179 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,360 +661,1584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F24"/>
+  <dimension ref="B4:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="4" spans="2:29" s="2" customFormat="1">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5">
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" s="2" customFormat="1">
+      <c r="B5" s="4">
+        <v>980.7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>141.93700000000001</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2">
         <v>1961</v>
       </c>
-      <c r="C5">
+      <c r="L5" s="3">
+        <f>AVERAGE(D11:D16)</f>
+        <v>273.3116</v>
+      </c>
+      <c r="M5" s="3">
+        <f>STDEV(D11:D16)</f>
+        <v>11.118772989858188</v>
+      </c>
+      <c r="N5" s="3">
+        <f>AVERAGE(E11:E16)</f>
+        <v>274.53699999999998</v>
+      </c>
+      <c r="O5" s="3">
+        <f>STDEV(E11:E16)</f>
+        <v>10.793614894927462</v>
+      </c>
+      <c r="P5" s="3">
+        <f>(N5-L5)/AVERAGE(N5,L5)*100</f>
+        <v>0.44734987001882598</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>AVERAGE(F11:F16)</f>
+        <v>273.68520000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <f>STDEV(F11:F16)</f>
+        <v>10.979536360885191</v>
+      </c>
+      <c r="S5" s="3">
+        <f>(Q5-L5)/AVERAGE(Q5,L5)*100</f>
+        <v>0.13660043349431308</v>
+      </c>
+      <c r="T5" s="3">
+        <f>AVERAGE(G11:G16)</f>
+        <v>274.81819999999999</v>
+      </c>
+      <c r="U5" s="3">
+        <f>STDEV(G11:G16)</f>
+        <v>10.998342679694984</v>
+      </c>
+      <c r="V5" s="3">
+        <f>(T5-N5)/AVERAGE(T5,N5)*100</f>
+        <v>0.10237456567263314</v>
+      </c>
+      <c r="W5" s="3">
+        <f>(T5-Q5)/AVERAGE(Q5,T5)*100</f>
+        <v>0.41312414836443356</v>
+      </c>
+      <c r="X5" s="1">
+        <f>AVERAGE(H11:H16)</f>
+        <v>271.5838</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>STDEV(H11:H16)</f>
+        <v>10.200672463127123</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>(X5-Q5)/AVERAGE(Q5,X5)*100</f>
+        <v>-0.77077552547458683</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>AVERAGE(I11:I16)</f>
+        <v>272.67659999999995</v>
+      </c>
+      <c r="AB5">
+        <f>STDEV(I11:I16)</f>
+        <v>10.285905613994332</v>
+      </c>
+      <c r="AC5" s="3">
+        <f>(AA5-T5)/AVERAGE(T5,AA5)*100</f>
+        <v>-0.78232706502419369</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" s="2" customFormat="1">
+      <c r="B6" s="4">
+        <v>980.7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2">
+        <v>2942</v>
+      </c>
+      <c r="L6" s="3">
+        <f>AVERAGE(D17:D22)</f>
+        <v>388.27733333333327</v>
+      </c>
+      <c r="M6" s="3">
+        <f>STDEV(D17:D22)</f>
+        <v>4.5919364470050441</v>
+      </c>
+      <c r="N6" s="3">
+        <f>AVERAGE(E17:E22)</f>
+        <v>378.21866666666665</v>
+      </c>
+      <c r="O6" s="3">
+        <f>STDEV(E17:E22)</f>
+        <v>20.471480902302439</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P7" si="0">(N6-L6)/AVERAGE(N6,L6)*100</f>
+        <v>-2.6245842552776861</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>AVERAGE(F17:F22)</f>
+        <v>386.08066666666667</v>
+      </c>
+      <c r="R6" s="3">
+        <f>STDEV(F17:F22)</f>
+        <v>5.1236768373242692</v>
+      </c>
+      <c r="S6" s="3">
+        <f>(Q6-L6)/AVERAGE(Q6,L6)*100</f>
+        <v>-0.56735170726372086</v>
+      </c>
+      <c r="T6" s="3">
+        <f>AVERAGE(G17:G22)</f>
+        <v>375.87466666666666</v>
+      </c>
+      <c r="U6" s="3">
+        <f>STDEV(G17:G22)</f>
+        <v>23.445049143333701</v>
+      </c>
+      <c r="V6" s="3">
+        <f>(T6-N6)/AVERAGE(T6,N6)*100</f>
+        <v>-0.62167370970878788</v>
+      </c>
+      <c r="W6" s="3">
+        <f>(T6-Q6)/AVERAGE(Q6,T6)*100</f>
+        <v>-2.6788971881991377</v>
+      </c>
+      <c r="X6" s="1">
+        <f>AVERAGE(H17:H22)</f>
+        <v>384.25900000000001</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>STDEV(H17:H22)</f>
+        <v>4.8182269560492728</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>(X6-Q6)/AVERAGE(Q6,X6)*100</f>
+        <v>-0.47295154215521151</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>AVERAGE(I17:I22)</f>
+        <v>374.48199999999997</v>
+      </c>
+      <c r="AB6">
+        <f>STDEV(I17:I22)</f>
+        <v>23.27284703253985</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" ref="AC6:AC7" si="1">(AA6-T6)/AVERAGE(T6,AA6)*100</f>
+        <v>-0.37120125096065909</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" s="2" customFormat="1">
+      <c r="B7" s="4">
+        <v>980.7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2">
+        <v>4903</v>
+      </c>
+      <c r="L7" s="3">
+        <f>AVERAGE(D23:D28)</f>
+        <v>619.68633333333332</v>
+      </c>
+      <c r="M7" s="3">
+        <f>STDEV(D23:D28)</f>
+        <v>14.838480443315845</v>
+      </c>
+      <c r="N7" s="3">
+        <f>AVERAGE(E23:E28)</f>
+        <v>572.18299999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <f>STDEV(E23:E28)</f>
+        <v>54.099056993629738</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.9712317457618393</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>AVERAGE(F23:F28)</f>
+        <v>614.90816666666672</v>
+      </c>
+      <c r="R7" s="3">
+        <f>STDEV(F23:F28)</f>
+        <v>11.357373876326607</v>
+      </c>
+      <c r="S7" s="3">
+        <f>(Q7-L7)/AVERAGE(Q7,L7)*100</f>
+        <v>-0.77404632317195743</v>
+      </c>
+      <c r="T7" s="3">
+        <f>AVERAGE(G23:G28)</f>
+        <v>570.6930000000001</v>
+      </c>
+      <c r="U7" s="3">
+        <f>STDEV(G23:G28)</f>
+        <v>52.734884348029055</v>
+      </c>
+      <c r="V7" s="3">
+        <f>(T7-N7)/AVERAGE(T7,N7)*100</f>
+        <v>-0.26074569769596967</v>
+      </c>
+      <c r="W7" s="3">
+        <f>(T7-Q7)/AVERAGE(Q7,T7)*100</f>
+        <v>-7.4586914908287643</v>
+      </c>
+      <c r="X7" s="1">
+        <f>AVERAGE(H23:H28)</f>
+        <v>612.61466666666672</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>STDEV(H23:H28)</f>
+        <v>11.291343634247717</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>(X7-Q7)/AVERAGE(Q7,X7)*100</f>
+        <v>-0.37367940338380579</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>AVERAGE(I23:I28)</f>
+        <v>568.70083333333332</v>
+      </c>
+      <c r="AB7">
+        <f>STDEV(I23:I28)</f>
+        <v>52.474059211830244</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.34968886233807817</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" s="2" customFormat="1">
+      <c r="B8" s="4">
+        <v>980.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>145.654</v>
+      </c>
+      <c r="I8" s="4">
+        <v>146.05600000000001</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="2:29" s="2" customFormat="1">
+      <c r="B9" s="4">
+        <v>980.7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>135.38800000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>135.428</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9"/>
+      <c r="L9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+    </row>
+    <row r="10" spans="2:29" s="2" customFormat="1">
+      <c r="B10" s="4">
+        <v>980.7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>139.80799999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>140.00899999999999</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2">
+        <v>1961</v>
+      </c>
+      <c r="L10" s="3">
+        <v>274.81819999999999</v>
+      </c>
+      <c r="M10">
+        <f>2*K10*SIN((136*3.14159/180)/2)*102/L10</f>
+        <v>1349.6711196247873</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11">
+        <v>1961</v>
+      </c>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D11" s="5">
         <v>271.56</v>
       </c>
-      <c r="E5">
+      <c r="E11" s="4">
         <v>272.94600000000003</v>
       </c>
-      <c r="F5" s="2">
-        <f>((E5-D5)/AVERAGE(D5:E5))*100</f>
-        <v>0.50908529933555335</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6">
+      <c r="F11" s="5">
+        <v>274.51299999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>275.93900000000002</v>
+      </c>
+      <c r="H11" s="5">
+        <v>273.16699999999997</v>
+      </c>
+      <c r="I11" s="5">
+        <v>274.79399999999998</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2">
+        <v>2942</v>
+      </c>
+      <c r="L11" s="3">
+        <v>375.87466666666666</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M12" si="2">2*K11*SIN((136*3.14159/180)/2)*102/L11</f>
+        <v>1480.4558636010711</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12">
         <v>1961</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>255.28700000000001</v>
-      </c>
-      <c r="E6">
-        <v>257.11500000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F22" si="0">((E6-D6)/AVERAGE(D6:E6))*100</f>
-        <v>0.71350228921823211</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
-        <v>1961</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>282.20699999999999</v>
-      </c>
-      <c r="E7">
-        <v>282.36799999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7034052163132037E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8">
-        <v>1961</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9">
-        <v>1961</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>274.995</v>
-      </c>
-      <c r="E9">
-        <v>275.87900000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.3209445354110067</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10">
-        <v>1961</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>282.50900000000001</v>
-      </c>
-      <c r="E10">
-        <v>284.37700000000001</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.65903903077514536</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11">
-        <v>2942</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>440.92</v>
-      </c>
-      <c r="E11">
-        <v>442.04500000000002</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25482323761417497</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12">
-        <v>2942</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>419.08199999999999</v>
+        <v>255.28700000000001</v>
       </c>
       <c r="E12">
-        <v>415.74700000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.79896601579484661</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>257.11500000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>255.26599999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>256.41199999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>254.24199999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>255.30699999999999</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4903</v>
+      </c>
+      <c r="L12" s="3">
+        <v>570.6930000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1625.0068634678071</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
       <c r="B13">
-        <v>2942</v>
+        <v>1961</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>383.161</v>
+        <v>282.20699999999999</v>
       </c>
       <c r="E13">
-        <v>381.83499999999998</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.34666847931231587</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>282.36799999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>281.464</v>
+      </c>
+      <c r="G13" s="1">
+        <v>281.64499999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>276.54199999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>276.66300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
       <c r="B14">
-        <v>2942</v>
+        <v>1961</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>407.87200000000001</v>
-      </c>
-      <c r="E14">
-        <v>410.84500000000003</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.72625827972303325</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:29">
       <c r="B15">
-        <v>2942</v>
+        <v>1961</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>392.041</v>
+        <v>274.995</v>
       </c>
       <c r="E15">
-        <v>396.64100000000002</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1665031026446713</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+        <v>275.87900000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>274.49299999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>275.43700000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>273.10700000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>273.97000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29">
       <c r="B16">
-        <v>2942</v>
+        <v>1961</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="1">
-        <v>389.63</v>
-      </c>
-      <c r="E16" s="1">
-        <v>356.18</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.970113031469138</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="D16">
+        <v>282.50900000000001</v>
+      </c>
+      <c r="E16">
+        <v>284.37700000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>282.69</v>
+      </c>
+      <c r="G16" s="1">
+        <v>284.65800000000002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>280.86099999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>282.649</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>620.52700000000004</v>
-      </c>
-      <c r="E17">
-        <v>564.99699999999996</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.3680094203069864</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>630.351</v>
-      </c>
-      <c r="E18">
-        <v>629.92899999999997</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.6969244929702201E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>614.399</v>
-      </c>
-      <c r="E19" s="1">
-        <v>525.4</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>-15.616613104591254</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>383.161</v>
+      </c>
+      <c r="E19">
+        <v>381.83499999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>381.755</v>
+      </c>
+      <c r="G19" s="1">
+        <v>380.40800000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>380.56900000000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>378.92200000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>592.923</v>
-      </c>
-      <c r="E20">
-        <v>609.25599999999997</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7172326250915995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>626.01099999999997</v>
+        <v>392.041</v>
       </c>
       <c r="E21">
-        <v>493.23500000000001</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>-23.725972663739686</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>396.64100000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>391.73899999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>396.72199999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>389.71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>395.21499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <v>389.63</v>
+      </c>
+      <c r="E22" s="1">
+        <v>356.18</v>
+      </c>
+      <c r="F22" s="1">
+        <v>384.74799999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>350.49400000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>382.49799999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>349.30900000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>4903</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>620.52700000000004</v>
+      </c>
+      <c r="E23">
+        <v>564.99699999999996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>618.15599999999995</v>
+      </c>
+      <c r="G23" s="1">
+        <v>565.15800000000002</v>
+      </c>
+      <c r="H23" s="1">
+        <v>615.34400000000005</v>
+      </c>
+      <c r="I23" s="1">
+        <v>563.33000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>4903</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>630.351</v>
+      </c>
+      <c r="E24">
+        <v>629.92899999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>620.96900000000005</v>
+      </c>
+      <c r="G24" s="1">
+        <v>625.851</v>
+      </c>
+      <c r="H24" s="1">
+        <v>618.75900000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>623.80200000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>4903</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>614.399</v>
+      </c>
+      <c r="E25" s="1">
+        <v>525.4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>614.84100000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>525.55999999999995</v>
+      </c>
+      <c r="H25" s="1">
+        <v>612.95299999999997</v>
+      </c>
+      <c r="I25" s="1">
+        <v>523.93299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>4903</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>592.923</v>
+      </c>
+      <c r="E26">
+        <v>609.25599999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>593.22400000000005</v>
+      </c>
+      <c r="G26" s="1">
+        <v>610.04</v>
+      </c>
+      <c r="H26" s="1">
+        <v>591.21500000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>607.54899999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>4903</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>626.01099999999997</v>
+      </c>
+      <c r="E27">
+        <v>493.23500000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>616.12699999999995</v>
+      </c>
+      <c r="G27" s="1">
+        <v>492.71300000000002</v>
+      </c>
+      <c r="H27" s="1">
+        <v>613.23400000000004</v>
+      </c>
+      <c r="I27" s="1">
+        <v>490.98500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28">
+        <v>4903</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
         <v>633.90700000000004</v>
       </c>
-      <c r="E22">
+      <c r="E28">
         <v>610.28099999999995</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.7978183361357107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="F23" s="2">
-        <f>AVERAGE(F5:F22)</f>
-        <v>-3.2686298731942993</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="F24" s="2">
-        <f>STDEV(F5:F22)</f>
-        <v>7.1555383191217414</v>
+      <c r="F28" s="1">
+        <v>626.13199999999995</v>
+      </c>
+      <c r="G28" s="1">
+        <v>604.83600000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>624.18299999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>602.60599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" s="2" customFormat="1">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4">
+        <v>490</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.219</v>
+      </c>
+      <c r="H4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5">
+        <v>490</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6">
+        <v>490</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H6">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7">
+        <v>490</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8">
+        <v>490</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.112</v>
+      </c>
+      <c r="H8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9">
+        <v>490</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10">
+        <v>980.7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11">
+        <v>980.7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12">
+        <v>980.7</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13">
+        <v>980.7</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14">
+        <v>980.7</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15">
+        <v>980.7</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16">
+        <v>1961</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17">
+        <v>1961</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H17">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18">
+        <v>1961</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="G18">
+        <v>0.152</v>
+      </c>
+      <c r="H18">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19">
+        <v>1961</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20">
+        <v>1961</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="G20">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21">
+        <v>1961</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22">
+        <v>2942</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G22">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H22">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23">
+        <v>2942</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="G23">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24">
+        <v>2942</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25">
+        <v>2942</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.73</v>
+      </c>
+      <c r="H25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26">
+        <v>2942</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.25</v>
+      </c>
+      <c r="H26">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27">
+        <v>2942</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G27">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28">
+        <v>4903</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29">
+        <v>4903</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="G29">
+        <v>0.499</v>
+      </c>
+      <c r="H29">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30">
+        <v>4903</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="G30">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31">
+        <v>4903</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G31">
+        <v>0.53</v>
+      </c>
+      <c r="H31">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32">
+        <v>4903</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33">
+        <v>4903</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G33">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.26200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
     <sheet name="Pileup Profiles" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Load</t>
   </si>
@@ -93,6 +94,18 @@
   <si>
     <t>Max Pileup 2, Planed and Cut</t>
   </si>
+  <si>
+    <t>Percent Difference from not cut</t>
+  </si>
+  <si>
+    <t>Average Max Pileup, nm</t>
+  </si>
+  <si>
+    <t>Average Cut Max Pileup, nm</t>
+  </si>
+  <si>
+    <t>STDEV, nm</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -142,12 +155,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,7 +202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -241,17 +284,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -292,6 +356,9 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +399,9 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1617,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H33"/>
+  <dimension ref="C3:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1629,9 +1699,13 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" s="2" customFormat="1">
+    <row r="3" spans="3:16" s="2" customFormat="1">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,595 +1724,956 @@
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4">
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="7">
         <v>490</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>0.224</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>0.219</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5">
+      <c r="I4" s="19">
+        <f>(G4-E4)/AVERAGE(E4,G4)*100</f>
+        <v>-2.2573363431151261</v>
+      </c>
+      <c r="J4" s="19">
+        <f>(H4-F4)/AVERAGE(H4,F4)*100</f>
+        <v>2.8571428571428399</v>
+      </c>
+      <c r="L4">
         <v>490</v>
       </c>
-      <c r="D5">
+      <c r="M4" s="3">
+        <f>AVERAGE(E4:F9)*1000</f>
+        <v>125.75000000000003</v>
+      </c>
+      <c r="N4" s="3">
+        <f>STDEV(E4:F9)*1000</f>
+        <v>73.567686829575749</v>
+      </c>
+      <c r="O4" s="3">
+        <f>AVERAGE(G4:H9)*1000</f>
+        <v>120.66666666666666</v>
+      </c>
+      <c r="P4" s="3">
+        <f>STDEV(G4:H9)*1000</f>
+        <v>66.5982982765576</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="7">
+        <v>490</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6">
+      <c r="I5" s="19">
+        <f t="shared" ref="I5:I21" si="0">(G5-E5)/AVERAGE(E5,G5)*100</f>
+        <v>-3.9436619718309895</v>
+      </c>
+      <c r="J5" s="19">
+        <f>(H5-F5)/AVERAGE(H5,F5)*100</f>
+        <v>-52.830188679245282</v>
+      </c>
+      <c r="L5">
+        <v>981</v>
+      </c>
+      <c r="M5" s="3">
+        <f>AVERAGE(E10:F15)*1000</f>
+        <v>150.41666666666666</v>
+      </c>
+      <c r="N5" s="3">
+        <f>STDEV(E10:F15)*1000</f>
+        <v>84.794359089112405</v>
+      </c>
+      <c r="O5" s="3">
+        <f>AVERAGE(G10:H15)*1000</f>
+        <v>133</v>
+      </c>
+      <c r="P5" s="3">
+        <f>STDEV(G10:H15)*1000</f>
+        <v>86.934667214157798</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="7">
         <v>490</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7">
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
+        <v>12.218649517684899</v>
+      </c>
+      <c r="J6" s="19">
+        <f>(H6-F6)/AVERAGE(H6,F6)*100</f>
+        <v>60.740740740740726</v>
+      </c>
+      <c r="L6">
+        <v>1961</v>
+      </c>
+      <c r="M6" s="3">
+        <f>AVERAGE(E16:F21)*1000</f>
+        <v>298.2</v>
+      </c>
+      <c r="N6" s="3">
+        <f>STDEV(E16:F21)*1000</f>
+        <v>204.65135664778234</v>
+      </c>
+      <c r="O6" s="3">
+        <f>AVERAGE(G16:H21)*1000</f>
+        <v>253.1</v>
+      </c>
+      <c r="P6" s="3">
+        <f>STDEV(G16:H21)*1000</f>
+        <v>129.29247636442136</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="7">
         <v>490</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <v>0.161</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8">
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>-12.541254125412552</v>
+      </c>
+      <c r="J7" s="19">
+        <f>(H7-F7)/AVERAGE(H7,F7)*100</f>
+        <v>-11.76470588235293</v>
+      </c>
+      <c r="L7">
+        <v>2942</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGE(E22:F27)*1000</f>
+        <v>297.58333333333331</v>
+      </c>
+      <c r="N7" s="3">
+        <f>STDEV(E22:F27)*1000</f>
+        <v>156.90672291833039</v>
+      </c>
+      <c r="O7" s="3">
+        <f>AVERAGE(G22:H27)*1000</f>
+        <v>289.66666666666669</v>
+      </c>
+      <c r="P7" s="3">
+        <f>STDEV(G22:H27)*1000</f>
+        <v>230.69158211908393</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="7">
         <v>490</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <v>0.112</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>0.112</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9">
+      <c r="I8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f>(H8-F8)/AVERAGE(H8,F8)*100</f>
+        <v>38.202247191011239</v>
+      </c>
+      <c r="L8">
+        <v>4903</v>
+      </c>
+      <c r="M8" s="3">
+        <f>AVERAGE(E28:F33)*1000</f>
+        <v>288.33333333333326</v>
+      </c>
+      <c r="N8" s="3">
+        <f>STDEV(E28:F33)*1000</f>
+        <v>144.09929236677772</v>
+      </c>
+      <c r="O8" s="3">
+        <f>AVERAGE(G28:H33)*1000</f>
+        <v>328.41666666666663</v>
+      </c>
+      <c r="P8" s="3">
+        <f>STDEV(G28:H33)*1000</f>
+        <v>135.49133372711157</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="7">
         <v>490</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <v>0.221</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10">
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
+        <v>2.2371364653243866</v>
+      </c>
+      <c r="J9" s="19">
+        <f>(H9-F9)/AVERAGE(H9,F9)*100</f>
+        <v>-48.80952380952381</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="9">
         <v>980.7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11">
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>4.8109965635738874</v>
+      </c>
+      <c r="J10" s="19">
+        <f>(H10-F10)/AVERAGE(H10,F10)*100</f>
+        <v>-16.393442622950825</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="9">
         <v>980.7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>6.2E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12">
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>-37.908496732026144</v>
+      </c>
+      <c r="J11" s="19">
+        <f>(H11-F11)/AVERAGE(H11,F11)*100</f>
+        <v>1.1363636363636374</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="9">
         <v>980.7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>0.245</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <v>0.17299999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13">
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>-17.294900221729495</v>
+      </c>
+      <c r="J12" s="19">
+        <f>(H12-F12)/AVERAGE(H12,F12)*100</f>
+        <v>-54.411764705882334</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="9">
         <v>980.7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="10">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>0.34499999999999997</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14">
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>-3.6984352773826492</v>
+      </c>
+      <c r="J13" s="19">
+        <f>(H13-F13)/AVERAGE(H13,F13)*100</f>
+        <v>-46.616541353383468</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="9">
         <v>980.7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15">
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
+        <v>8.8495575221238862</v>
+      </c>
+      <c r="J14" s="19">
+        <f>(H14-F14)/AVERAGE(H14,F14)*100</f>
+        <v>-16.822429906542055</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="9">
         <v>980.7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>6</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <v>5.5E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>0.13600000000000001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16">
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
+        <v>-2.8985507246376838</v>
+      </c>
+      <c r="J15" s="19">
+        <f>(H15-F15)/AVERAGE(H15,F15)*100</f>
+        <v>-31.578947368421051</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="11">
         <v>1961</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="12">
         <v>0.28699999999999998</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="12">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="11">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="11">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17">
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0874785591766751</v>
+      </c>
+      <c r="J16" s="19">
+        <f>(H16-F16)/AVERAGE(H16,F16)*100</f>
+        <v>34.482758620689658</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="11">
         <v>1961</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="12">
         <v>0.378</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="12">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="11">
         <v>0.34499999999999997</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="11">
         <v>0.498</v>
       </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18">
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
+        <v>-9.1286307053941993</v>
+      </c>
+      <c r="J17" s="19">
+        <f>(H17-F17)/AVERAGE(H17,F17)*100</f>
+        <v>3.0581039755351709</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="11">
         <v>1961</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="12">
         <v>0.114</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="11">
         <v>0.152</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="11">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19">
+      <c r="I18" s="19">
+        <f t="shared" si="0"/>
+        <v>5.4054054054054106</v>
+      </c>
+      <c r="J18" s="19">
+        <f>(H18-F18)/AVERAGE(H18,F18)*100</f>
+        <v>-3.5714285714285747</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="11">
         <v>1961</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <v>4</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="11">
         <v>1961</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="12">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="12">
         <v>0.161</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="11">
         <v>0.36899999999999999</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="11">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21">
+      <c r="I20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81632653061224569</v>
+      </c>
+      <c r="J20" s="19">
+        <f>(H20-F20)/AVERAGE(H20,F20)*100</f>
+        <v>-26.760563380281692</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="11">
         <v>1961</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="12">
         <v>0.751</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="12">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="11">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="11">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22">
+      <c r="I21" s="19">
+        <f t="shared" si="0"/>
+        <v>-85.009487666034161</v>
+      </c>
+      <c r="J21" s="19">
+        <f>(H21-F21)/AVERAGE(H21,F21)*100</f>
+        <v>-1.4962593516209488</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="13">
         <v>2942</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="14">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="15">
         <v>0.28899999999999998</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="15">
         <v>0.26</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="13">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23">
+      <c r="I22" s="19">
+        <f>(H22-E22)/AVERAGE(H22,E22)*100</f>
+        <v>-99.481865284974077</v>
+      </c>
+      <c r="J22" s="19">
+        <f>(G22-F22)/AVERAGE(G22,F22)*100</f>
+        <v>-65.984654731457809</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="13">
         <v>2942</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="14">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="15">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="15">
         <v>0.378</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="13">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="13">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24">
+      <c r="I23" s="19">
+        <f t="shared" ref="I23:I27" si="1">(H23-E23)/AVERAGE(H23,E23)*100</f>
+        <v>8.9965397923875319</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" ref="J23:J27" si="2">(G23-F23)/AVERAGE(G23,F23)*100</f>
+        <v>1.0526315789473693</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="13">
         <v>2942</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="14">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="15">
         <v>0.161</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="15">
         <v>0.29699999999999999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="13">
         <v>0.26500000000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="13">
         <v>0.126</v>
       </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25">
+      <c r="I24" s="19">
+        <f t="shared" si="1"/>
+        <v>-24.390243902439025</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" si="2"/>
+        <v>-11.387900355871876</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="13">
         <v>2942</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="14">
         <v>4</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="15">
         <v>0.34399999999999997</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="15">
         <v>0.61699999999999999</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="13">
         <v>0.73</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="13">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26">
+      <c r="I25" s="19">
+        <f t="shared" si="1"/>
+        <v>-48.375451263537904</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="2"/>
+        <v>16.778025241276911</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="13">
         <v>2942</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="14">
         <v>5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="15">
         <v>0.155</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="15">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="13">
         <v>0.25</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="13">
         <v>0.14099999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27">
+      <c r="I26" s="19">
+        <f t="shared" si="1"/>
+        <v>-9.4594594594594685</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="2"/>
+        <v>-45.916795069337446</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="13">
         <v>2942</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="14">
         <v>6</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="15">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="15">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="13">
         <v>0.77800000000000002</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="13">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28">
+      <c r="I27" s="19">
+        <f t="shared" si="1"/>
+        <v>108.24372759856628</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="2"/>
+        <v>49.558941459502819</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="16">
         <v>4903</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="18">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="18">
         <v>0.29699999999999999</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="16">
         <v>0.10299999999999999</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="16">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29">
+      <c r="I28" s="19">
+        <f>(G28-E28)/AVERAGE(E28,G28)*100</f>
+        <v>-51.263537906137181</v>
+      </c>
+      <c r="J28" s="19">
+        <f>(H28-F28)/AVERAGE(H28,F28)*100</f>
+        <v>17.791411042944784</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="16">
         <v>4903</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="18">
         <v>0.34300000000000003</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="18">
         <v>0.218</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="16">
         <v>0.499</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="16">
         <v>0.26300000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30">
+      <c r="I29" s="19">
+        <f t="shared" ref="I29:I33" si="3">(G29-E29)/AVERAGE(E29,G29)*100</f>
+        <v>37.054631828978614</v>
+      </c>
+      <c r="J29" s="19">
+        <f>(H29-F29)/AVERAGE(H29,F29)*100</f>
+        <v>18.711018711018717</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="16">
         <v>4903</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="17">
         <v>3</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="18">
         <v>0.222</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="18">
         <v>0.192</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="16">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="16">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31">
+      <c r="I30" s="19">
+        <f t="shared" si="3"/>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="J30" s="19">
+        <f>(H30-F30)/AVERAGE(H30,F30)*100</f>
+        <v>48.221343873517789</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="16">
         <v>4903</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="17">
         <v>4</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="18">
         <v>0.6</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="18">
         <v>0.125</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="16">
         <v>0.53</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="16">
         <v>0.38600000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32">
+      <c r="I31" s="19">
+        <f t="shared" si="3"/>
+        <v>-12.389380530973444</v>
+      </c>
+      <c r="J31" s="19">
+        <f>(H31-F31)/AVERAGE(H31,F31)*100</f>
+        <v>102.15264187866929</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="16">
         <v>4903</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="17">
         <v>5</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="18">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="18">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="16">
         <v>0.23100000000000001</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="16">
         <v>0.52900000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33">
+      <c r="I32" s="19">
+        <f t="shared" si="3"/>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="J32" s="19">
+        <f>(H32-F32)/AVERAGE(H32,F32)*100</f>
+        <v>113.48148148148147</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="16">
         <v>4903</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="17">
         <v>6</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="18">
         <v>0.48</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="18">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="16">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="16">
         <v>0.26200000000000001</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="3"/>
+        <v>-77.858176555716369</v>
+      </c>
+      <c r="J33" s="19">
+        <f>(H33-F33)/AVERAGE(H33,F33)*100</f>
+        <v>-41.452344931921331</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="I34" s="20">
+        <f>AVERAGE(I4:J33)</f>
+        <v>-4.6911101836496343</v>
+      </c>
+      <c r="J34" s="21">
+        <f>STDEV(I4:J33)</f>
+        <v>41.89364763051158</v>
       </c>
     </row>
   </sheetData>
@@ -2250,4 +2685,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
     <sheet name="Pileup Profiles" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Pileup Profiles 2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Load</t>
   </si>
@@ -202,8 +202,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,7 +317,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -359,6 +361,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -402,6 +405,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1690,7 +1694,7 @@
   <dimension ref="C3:P34"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C1" sqref="C1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1767,7 +1771,7 @@
         <v>-2.2573363431151261</v>
       </c>
       <c r="J4" s="19">
-        <f>(H4-F4)/AVERAGE(H4,F4)*100</f>
+        <f t="shared" ref="J4:J18" si="0">(H4-F4)/AVERAGE(H4,F4)*100</f>
         <v>2.8571428571428399</v>
       </c>
       <c r="L4">
@@ -1810,11 +1814,11 @@
         <v>3.9E-2</v>
       </c>
       <c r="I5" s="19">
-        <f t="shared" ref="I5:I21" si="0">(G5-E5)/AVERAGE(E5,G5)*100</f>
+        <f t="shared" ref="I5:I21" si="1">(G5-E5)/AVERAGE(E5,G5)*100</f>
         <v>-3.9436619718309895</v>
       </c>
       <c r="J5" s="19">
-        <f>(H5-F5)/AVERAGE(H5,F5)*100</f>
+        <f t="shared" si="0"/>
         <v>-52.830188679245282</v>
       </c>
       <c r="L5">
@@ -1857,11 +1861,11 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="I6" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.218649517684899</v>
       </c>
       <c r="J6" s="19">
-        <f>(H6-F6)/AVERAGE(H6,F6)*100</f>
+        <f t="shared" si="0"/>
         <v>60.740740740740726</v>
       </c>
       <c r="L6">
@@ -1904,11 +1908,11 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I7" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12.541254125412552</v>
       </c>
       <c r="J7" s="19">
-        <f>(H7-F7)/AVERAGE(H7,F7)*100</f>
+        <f t="shared" si="0"/>
         <v>-11.76470588235293</v>
       </c>
       <c r="L7">
@@ -1951,11 +1955,11 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I8" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="19">
-        <f>(H8-F8)/AVERAGE(H8,F8)*100</f>
+        <f t="shared" si="0"/>
         <v>38.202247191011239</v>
       </c>
       <c r="L8">
@@ -1998,11 +2002,11 @@
         <v>0.127</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2371364653243866</v>
       </c>
       <c r="J9" s="19">
-        <f>(H9-F9)/AVERAGE(H9,F9)*100</f>
+        <f t="shared" si="0"/>
         <v>-48.80952380952381</v>
       </c>
       <c r="M9" s="6"/>
@@ -2028,11 +2032,11 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="I10" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8109965635738874</v>
       </c>
       <c r="J10" s="19">
-        <f>(H10-F10)/AVERAGE(H10,F10)*100</f>
+        <f t="shared" si="0"/>
         <v>-16.393442622950825</v>
       </c>
     </row>
@@ -2056,11 +2060,11 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-37.908496732026144</v>
       </c>
       <c r="J11" s="19">
-        <f>(H11-F11)/AVERAGE(H11,F11)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1363636363636374</v>
       </c>
     </row>
@@ -2084,11 +2088,11 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-17.294900221729495</v>
       </c>
       <c r="J12" s="19">
-        <f>(H12-F12)/AVERAGE(H12,F12)*100</f>
+        <f t="shared" si="0"/>
         <v>-54.411764705882334</v>
       </c>
     </row>
@@ -2112,11 +2116,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.6984352773826492</v>
       </c>
       <c r="J13" s="19">
-        <f>(H13-F13)/AVERAGE(H13,F13)*100</f>
+        <f t="shared" si="0"/>
         <v>-46.616541353383468</v>
       </c>
     </row>
@@ -2140,11 +2144,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8495575221238862</v>
       </c>
       <c r="J14" s="19">
-        <f>(H14-F14)/AVERAGE(H14,F14)*100</f>
+        <f t="shared" si="0"/>
         <v>-16.822429906542055</v>
       </c>
     </row>
@@ -2168,11 +2172,11 @@
         <v>0.04</v>
       </c>
       <c r="I15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.8985507246376838</v>
       </c>
       <c r="J15" s="19">
-        <f>(H15-F15)/AVERAGE(H15,F15)*100</f>
+        <f t="shared" si="0"/>
         <v>-31.578947368421051</v>
       </c>
     </row>
@@ -2196,11 +2200,11 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="I16" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0874785591766751</v>
       </c>
       <c r="J16" s="19">
-        <f>(H16-F16)/AVERAGE(H16,F16)*100</f>
+        <f t="shared" si="0"/>
         <v>34.482758620689658</v>
       </c>
     </row>
@@ -2224,11 +2228,11 @@
         <v>0.498</v>
       </c>
       <c r="I17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.1286307053941993</v>
       </c>
       <c r="J17" s="19">
-        <f>(H17-F17)/AVERAGE(H17,F17)*100</f>
+        <f t="shared" si="0"/>
         <v>3.0581039755351709</v>
       </c>
     </row>
@@ -2252,11 +2256,11 @@
         <v>0.11</v>
       </c>
       <c r="I18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4054054054054106</v>
       </c>
       <c r="J18" s="19">
-        <f>(H18-F18)/AVERAGE(H18,F18)*100</f>
+        <f t="shared" si="0"/>
         <v>-3.5714285714285747</v>
       </c>
     </row>
@@ -2294,7 +2298,7 @@
         <v>0.123</v>
       </c>
       <c r="I20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81632653061224569</v>
       </c>
       <c r="J20" s="19">
@@ -2322,7 +2326,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-85.009487666034161</v>
       </c>
       <c r="J21" s="19">
@@ -2378,11 +2382,11 @@
         <v>0.151</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" ref="I23:I27" si="1">(H23-E23)/AVERAGE(H23,E23)*100</f>
+        <f t="shared" ref="I23:I27" si="2">(H23-E23)/AVERAGE(H23,E23)*100</f>
         <v>8.9965397923875319</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" ref="J23:J27" si="2">(G23-F23)/AVERAGE(G23,F23)*100</f>
+        <f t="shared" ref="J23:J27" si="3">(G23-F23)/AVERAGE(G23,F23)*100</f>
         <v>1.0526315789473693</v>
       </c>
     </row>
@@ -2406,11 +2410,11 @@
         <v>0.126</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-24.390243902439025</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11.387900355871876</v>
       </c>
     </row>
@@ -2434,11 +2438,11 @@
         <v>0.21</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-48.375451263537904</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.778025241276911</v>
       </c>
     </row>
@@ -2462,11 +2466,11 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.4594594594594685</v>
       </c>
       <c r="J26" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-45.916795069337446</v>
       </c>
     </row>
@@ -2490,11 +2494,11 @@
         <v>0.215</v>
       </c>
       <c r="I27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108.24372759856628</v>
       </c>
       <c r="J27" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.558941459502819</v>
       </c>
     </row>
@@ -2522,7 +2526,7 @@
         <v>-51.263537906137181</v>
       </c>
       <c r="J28" s="19">
-        <f>(H28-F28)/AVERAGE(H28,F28)*100</f>
+        <f t="shared" ref="J28:J33" si="4">(H28-F28)/AVERAGE(H28,F28)*100</f>
         <v>17.791411042944784</v>
       </c>
     </row>
@@ -2546,11 +2550,11 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:I33" si="3">(G29-E29)/AVERAGE(E29,G29)*100</f>
+        <f t="shared" ref="I29:I33" si="5">(G29-E29)/AVERAGE(E29,G29)*100</f>
         <v>37.054631828978614</v>
       </c>
       <c r="J29" s="19">
-        <f>(H29-F29)/AVERAGE(H29,F29)*100</f>
+        <f t="shared" si="4"/>
         <v>18.711018711018717</v>
       </c>
     </row>
@@ -2574,11 +2578,11 @@
         <v>0.314</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15.000000000000002</v>
       </c>
       <c r="J30" s="19">
-        <f>(H30-F30)/AVERAGE(H30,F30)*100</f>
+        <f t="shared" si="4"/>
         <v>48.221343873517789</v>
       </c>
     </row>
@@ -2602,11 +2606,11 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-12.389380530973444</v>
       </c>
       <c r="J31" s="19">
-        <f>(H31-F31)/AVERAGE(H31,F31)*100</f>
+        <f t="shared" si="4"/>
         <v>102.15264187866929</v>
       </c>
     </row>
@@ -2630,11 +2634,11 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="I32" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-13.333333333333334</v>
       </c>
       <c r="J32" s="19">
-        <f>(H32-F32)/AVERAGE(H32,F32)*100</f>
+        <f t="shared" si="4"/>
         <v>113.48148148148147</v>
       </c>
     </row>
@@ -2658,11 +2662,11 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="I33" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-77.858176555716369</v>
       </c>
       <c r="J33" s="19">
-        <f>(H33-F33)/AVERAGE(H33,F33)*100</f>
+        <f t="shared" si="4"/>
         <v>-41.452344931921331</v>
       </c>
     </row>
@@ -2689,12 +2693,1460 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:16">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="7">
+        <v>490</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.122</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I4" s="19">
+        <f>(G4-E4)/AVERAGE(E4,G4)*100</f>
+        <v>7.1146245059288598</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" ref="J4:J53" si="0">(H4-F4)/AVERAGE(H4,F4)*100</f>
+        <v>20.532319391634974</v>
+      </c>
+      <c r="L4">
+        <v>490</v>
+      </c>
+      <c r="M4" s="3">
+        <f>AVERAGE(E4:F9)*1000</f>
+        <v>115.08333333333333</v>
+      </c>
+      <c r="N4" s="3">
+        <f>STDEV(E4:F9)*1000</f>
+        <v>40.27960985035687</v>
+      </c>
+      <c r="O4" s="3">
+        <f>AVERAGE(G4:H9)*1000</f>
+        <v>90.666666666666657</v>
+      </c>
+      <c r="P4" s="3">
+        <f>STDEV(G4:H9)*1000</f>
+        <v>42.110964526276739</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="7">
+        <v>490</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" ref="I5:I53" si="1">(G5-E5)/AVERAGE(E5,G5)*100</f>
+        <v>-4.8780487804878092</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
+        <v>-74.747474747474755</v>
+      </c>
+      <c r="L5">
+        <v>981</v>
+      </c>
+      <c r="M5" s="3">
+        <f>AVERAGE(E14:F19)*1000</f>
+        <v>141.16666666666669</v>
+      </c>
+      <c r="N5" s="3">
+        <f>STDEV(E14:F19)*1000</f>
+        <v>55.43027287967422</v>
+      </c>
+      <c r="O5" s="3">
+        <f>AVERAGE(G14:H19)*1000</f>
+        <v>79</v>
+      </c>
+      <c r="P5" s="3">
+        <f>STDEV(G14:H19)*1000</f>
+        <v>45.569128305745032</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="7">
+        <v>490</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="1"/>
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>-37.751004016064243</v>
+      </c>
+      <c r="L6">
+        <v>1961</v>
+      </c>
+      <c r="M6" s="3">
+        <f>AVERAGE(E24:F29)*1000</f>
+        <v>268.75</v>
+      </c>
+      <c r="N6" s="3">
+        <f>STDEV(E24:F29)*1000</f>
+        <v>160.31736989767859</v>
+      </c>
+      <c r="O6" s="3" t="e">
+        <f>AVERAGE(G24:H29)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="3" t="e">
+        <f>STDEV(G24:H29)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="7">
+        <v>490</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="1"/>
+        <v>12.31671554252199</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>-26.589595375722553</v>
+      </c>
+      <c r="L7">
+        <v>2942</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGE(E34:F39)*1000</f>
+        <v>375.33333333333331</v>
+      </c>
+      <c r="N7" s="3">
+        <f>STDEV(E34:F39)*1000</f>
+        <v>163.73500393975493</v>
+      </c>
+      <c r="O7" s="3" t="e">
+        <f>AVERAGE(G34:H39)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="3" t="e">
+        <f>STDEV(G34:H39)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="7">
+        <v>490</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="1"/>
+        <v>14.705882352941169</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>-48.221343873517789</v>
+      </c>
+      <c r="L8">
+        <v>4903</v>
+      </c>
+      <c r="M8" s="3">
+        <f>AVERAGE(E44:F49)*1000</f>
+        <v>375.58333333333331</v>
+      </c>
+      <c r="N8" s="3">
+        <f>STDEV(E44:F49)*1000</f>
+        <v>81.304655276909074</v>
+      </c>
+      <c r="O8" s="3" t="e">
+        <f>AVERAGE(G44:H49)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="3" t="e">
+        <f>STDEV(G44:H49)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="7">
+        <v>490</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="1"/>
+        <v>-5.9701492537313481</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>-94.827586206896569</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="7">
+        <v>490</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="1"/>
+        <v>3.8709677419354875</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>-36.68639053254438</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="7">
+        <v>490</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="1"/>
+        <v>-31.325301204819272</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
+        <v>-5.8479532163742585</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="7">
+        <v>490</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="1"/>
+        <v>-158.97435897435898</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="0"/>
+        <v>13.49693251533742</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="7">
+        <v>490</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.122</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="1"/>
+        <v>-114.83870967741936</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>-122.64150943396226</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.215</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="1"/>
+        <v>1.7595307917888419</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>-126.99619771863115</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.105</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>-52.631578947368418</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="1"/>
+        <v>-134.02061855670101</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="0"/>
+        <v>36.111111111111121</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="1"/>
+        <v>-141.10429447852761</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="0"/>
+        <v>6.4981949458483612</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="1"/>
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="0"/>
+        <v>-133.89830508474577</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D19" s="9">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="1"/>
+        <v>-103.58974358974358</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="0"/>
+        <v>-31.707317073170728</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="1"/>
+        <v>-62.146892655367246</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="0"/>
+        <v>-74.226804123711347</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.222</v>
+      </c>
+      <c r="F21" s="10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="1"/>
+        <v>-138.93129770992365</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.182</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="1"/>
+        <v>-92.369477911646584</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="0"/>
+        <v>-129.01408450704227</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="9">
+        <v>980.7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F23" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="1"/>
+        <v>7.6086956521739202</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="0"/>
+        <v>-89.908256880733944</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D26" s="11">
+        <v>3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.114</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.246</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D28" s="11">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.253</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D29" s="11">
+        <v>6</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.222</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D30" s="11">
+        <v>7</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.223</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D31" s="11">
+        <v>8</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J31" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D32" s="11">
+        <v>9</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J32" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="11">
+        <v>1961</v>
+      </c>
+      <c r="D33" s="11">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.216</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J33" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.504</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D35" s="14">
+        <v>2</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D36" s="14">
+        <v>3</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D37" s="14">
+        <v>4</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.316</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D38" s="14">
+        <v>5</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.161</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D39" s="14">
+        <v>6</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.497</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D40" s="14">
+        <v>7</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.156</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J40" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D41" s="14">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J41" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D42" s="14">
+        <v>9</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J42" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="13">
+        <v>2942</v>
+      </c>
+      <c r="D43" s="14">
+        <v>10</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.373</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J44" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D45" s="17">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J45" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D46" s="17">
+        <v>3</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J46" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D47" s="17">
+        <v>4</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J47" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D48" s="17">
+        <v>5</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J48" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D49" s="17">
+        <v>6</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0.312</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0.499</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J49" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D50" s="17">
+        <v>7</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F50" s="18">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J50" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D51" s="17">
+        <v>8</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J51" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D52" s="17">
+        <v>9</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J52" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="16">
+        <v>4903</v>
+      </c>
+      <c r="D53" s="17">
+        <v>10</v>
+      </c>
+      <c r="E53" s="18">
+        <v>0.621</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="19">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="J53" s="19">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="I54" s="20">
+        <f>AVERAGE(I4:J49)</f>
+        <v>-78.050681014269543</v>
+      </c>
+      <c r="J54" s="21">
+        <f>STDEV(I4:J49)</f>
+        <v>47.689760093131262</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
     <sheet name="Pileup Profiles" sheetId="4" r:id="rId2"/>
     <sheet name="Pileup Profiles 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Cutoff Area Changes" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Load</t>
   </si>
@@ -106,6 +107,15 @@
   <si>
     <t>STDEV, nm</t>
   </si>
+  <si>
+    <t>Percent change over range</t>
+  </si>
+  <si>
+    <t>Extrapolate:</t>
+  </si>
+  <si>
+    <t>Micron change</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +202,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,8 +308,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,8 +336,9 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -362,6 +383,8 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -406,11 +429,681 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Area vs. Cutoff Height</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>490.3</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.651150573983579"/>
+                  <c:y val="0.0291754779744729"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>73.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.80500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>980.7</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>142.199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1961</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.153765677711785"/>
+                  <c:y val="0.0460163271598955"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="8">
+                  <c:v>274.513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270.676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>269.209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267.642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2942</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>391.237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390.735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390.353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>389.329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388.927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386.898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382.357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>378.379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>376.511</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374.422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4903</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>527.9109999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>527.569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527.047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526.685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>526.324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525.842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>523.592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>521.582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>519.794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>514.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>512.441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2073408920"/>
+        <c:axId val="2073411240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2073408920"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="-0.001"/>
+          <c:min val="-0.045"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Height Cutoff [µm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073411240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2073411240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area [µm^2]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073408920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +2387,7 @@
   <dimension ref="C3:P34"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:P1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2695,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -4154,4 +4847,292 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="C3" s="2">
+        <v>490.3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>980.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1961</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2942</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>142.19900000000001</v>
+      </c>
+      <c r="F4">
+        <v>391.23700000000002</v>
+      </c>
+      <c r="G4">
+        <v>527.91099999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2">
+        <v>-1E-3</v>
+      </c>
+      <c r="D5">
+        <v>141.93700000000001</v>
+      </c>
+      <c r="F5">
+        <v>390.73500000000001</v>
+      </c>
+      <c r="G5">
+        <v>527.56899999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="D6">
+        <v>141.696</v>
+      </c>
+      <c r="F6">
+        <v>390.35300000000001</v>
+      </c>
+      <c r="G6">
+        <v>527.04700000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>141.47499999999999</v>
+      </c>
+      <c r="F7">
+        <v>389.89100000000002</v>
+      </c>
+      <c r="G7">
+        <v>526.68499999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>141.33500000000001</v>
+      </c>
+      <c r="F8">
+        <v>389.32900000000001</v>
+      </c>
+      <c r="G8">
+        <v>526.32399999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>141.17400000000001</v>
+      </c>
+      <c r="F9">
+        <v>388.92700000000002</v>
+      </c>
+      <c r="G9">
+        <v>525.84199999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="C10">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="D10">
+        <v>140.04900000000001</v>
+      </c>
+      <c r="F10">
+        <v>386.89800000000002</v>
+      </c>
+      <c r="G10">
+        <v>523.59199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>71.983000000000004</v>
+      </c>
+      <c r="D11">
+        <v>138.904</v>
+      </c>
+      <c r="F11">
+        <v>384.32600000000002</v>
+      </c>
+      <c r="G11">
+        <v>521.58199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="C12">
+        <v>71.138999999999996</v>
+      </c>
+      <c r="D12">
+        <v>138.04</v>
+      </c>
+      <c r="E12">
+        <v>274.51299999999998</v>
+      </c>
+      <c r="F12">
+        <v>382.35700000000003</v>
+      </c>
+      <c r="G12">
+        <v>519.79399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="C13">
+        <v>69.372</v>
+      </c>
+      <c r="D13">
+        <v>136.11099999999999</v>
+      </c>
+      <c r="E13">
+        <v>270.67599999999999</v>
+      </c>
+      <c r="F13">
+        <v>378.37900000000002</v>
+      </c>
+      <c r="G13">
+        <v>515.99699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>68.367000000000004</v>
+      </c>
+      <c r="D14">
+        <v>135.18700000000001</v>
+      </c>
+      <c r="E14">
+        <v>269.209</v>
+      </c>
+      <c r="F14">
+        <v>376.51100000000002</v>
+      </c>
+      <c r="G14">
+        <v>514.27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="C15">
+        <v>67.805000000000007</v>
+      </c>
+      <c r="D15">
+        <v>134.404</v>
+      </c>
+      <c r="E15">
+        <v>267.642</v>
+      </c>
+      <c r="F15">
+        <v>374.42200000000003</v>
+      </c>
+      <c r="G15">
+        <v>512.44100000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <f>(D15-D4)/D4*100</f>
+        <v>-5.4817544427176106</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <f>(F15-F4)/F4*100</f>
+        <v>-4.2979063841098863</v>
+      </c>
+      <c r="G16" s="3">
+        <f>(G15-G4)/G4*100</f>
+        <v>-2.9304181954912694</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <f>D15-D4</f>
+        <v>-7.7950000000000159</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <f>F15-F4</f>
+        <v>-16.814999999999998</v>
+      </c>
+      <c r="G17" s="3">
+        <f>G15-G4</f>
+        <v>-15.469999999999914</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="22">
+        <f>(C15-75.012)/75.012*100</f>
+        <v>-9.6077960859595724</v>
+      </c>
+      <c r="E18" s="3">
+        <f>(E15-281.26)/281.26*100</f>
+        <v>-4.8417834032567715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -961,11 +961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073408920"/>
-        <c:axId val="2073411240"/>
+        <c:axId val="2114567640"/>
+        <c:axId val="2114571144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073408920"/>
+        <c:axId val="2114567640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -996,12 +996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073411240"/>
+        <c:crossAx val="2114571144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073411240"/>
+        <c:axId val="2114571144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073408920"/>
+        <c:crossAx val="2114567640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -3388,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4853,7 +4853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
     <sheet name="Pileup Profiles" sheetId="4" r:id="rId2"/>
     <sheet name="Pileup Profiles 2" sheetId="5" r:id="rId3"/>
     <sheet name="Cutoff Area Changes" sheetId="6" r:id="rId4"/>
+    <sheet name="Before and After Gold 200nm" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Load</t>
   </si>
@@ -115,6 +116,21 @@
   </si>
   <si>
     <t>Micron change</t>
+  </si>
+  <si>
+    <t>Before Gold, Nanovea Hardness</t>
+  </si>
+  <si>
+    <t>Sample 14 June</t>
+  </si>
+  <si>
+    <t>40x mag</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>After Au-Pd, Nanovea Hardness</t>
   </si>
 </sst>
 </file>
@@ -218,8 +234,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,7 +370,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -385,6 +417,14 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -431,6 +471,14 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -961,11 +1008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114567640"/>
-        <c:axId val="2114571144"/>
+        <c:axId val="2095281688"/>
+        <c:axId val="2081055128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114567640"/>
+        <c:axId val="2095281688"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -989,19 +1036,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114571144"/>
+        <c:crossAx val="2081055128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114571144"/>
+        <c:axId val="2081055128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,14 +1070,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114567640"/>
+        <c:crossAx val="2095281688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1046,7 +1091,6 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1430,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -5135,4 +5179,649 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4">
+        <v>490.3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>449.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>491.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>490.3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>422.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <v>490.3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>447.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>476.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7">
+        <v>490.3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>460.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>476.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>490.3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>493.6</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>490.3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>407.4</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>490.3</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>433.7</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>490.3</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>457.8</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <v>490.3</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>444</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <v>490.3</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>450.8</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="20">
+        <f>AVERAGE(D4:D13)</f>
+        <v>446.68</v>
+      </c>
+      <c r="E14" s="20">
+        <f>AVERAGE(E4:E13)</f>
+        <v>482.07499999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="20">
+        <f>STDEV(D4:D13)</f>
+        <v>23.204013062878214</v>
+      </c>
+      <c r="E15" s="20">
+        <f>STDEV(E4:E13)</f>
+        <v>7.4428377204755316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <v>980.7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>471.1</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>980.7</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>495.7</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>980.7</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>485.6</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>980.7</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>485.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>980.7</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>494.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>980.7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>514.20000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>980.7</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>980.7</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>487.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>980.7</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>550.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>980.7</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>494.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="20">
+        <f>AVERAGE(D16:D25)</f>
+        <v>500.60999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="20">
+        <f>STDEV(D16:D25)</f>
+        <v>23.548175206490111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>1961</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>1961</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>502.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>1961</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>501.2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>1961</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>483.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>1961</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>520.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>1961</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>470.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>1961</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>492.3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>1961</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3">
+        <v>531.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>1961</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>494.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>1961</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>551.79999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="20">
+        <f>AVERAGE(D28:D37)</f>
+        <v>505.78999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="20">
+        <f>STDEV(D28:D37)</f>
+        <v>23.803568826730345</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>2941</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>2941</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>2941</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>2941</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>2941</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>2941</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>2941</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>2941</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>2941</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>2941</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="C50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="20" t="e">
+        <f>AVERAGE(D40:D49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="20" t="e">
+        <f>STDEV(D40:D49)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52">
+        <v>4903</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53">
+        <v>4903</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54">
+        <v>4903</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55">
+        <v>4903</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56">
+        <v>4903</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57">
+        <v>4903</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58">
+        <v>4903</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59">
+        <v>4903</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60">
+        <v>4903</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61">
+        <v>4903</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data_error_analysis.xlsx
+++ b/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Load</t>
   </si>
@@ -234,8 +234,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -370,7 +374,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -425,6 +429,8 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -479,6 +485,8 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,6 +524,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1008,11 +1017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095281688"/>
-        <c:axId val="2081055128"/>
+        <c:axId val="2101326776"/>
+        <c:axId val="2054757800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095281688"/>
+        <c:axId val="2101326776"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1036,18 +1045,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081055128"/>
+        <c:crossAx val="2054757800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081055128"/>
+        <c:axId val="2054757800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,13 +1080,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095281688"/>
+        <c:crossAx val="2101326776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1091,6 +1102,7 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4895,15 +4907,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G18"/>
+  <dimension ref="B3:X18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:24">
       <c r="C3" s="2">
         <v>490.3</v>
       </c>
@@ -4919,8 +4931,23 @@
       <c r="G3" s="2">
         <v>4903</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="T3" s="2">
+        <v>490.3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>980.7</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1961</v>
+      </c>
+      <c r="W3" s="2">
+        <v>2942</v>
+      </c>
+      <c r="X3" s="2">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -4933,8 +4960,20 @@
       <c r="G4">
         <v>527.91099999999994</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>142.19900000000001</v>
+      </c>
+      <c r="W4">
+        <v>391.23700000000002</v>
+      </c>
+      <c r="X4">
+        <v>527.91099999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
       <c r="B5" s="2">
         <v>-1E-3</v>
       </c>
@@ -4947,8 +4986,20 @@
       <c r="G5">
         <v>527.56899999999996</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="S5" s="2">
+        <v>-1E-3</v>
+      </c>
+      <c r="U5">
+        <v>141.93700000000001</v>
+      </c>
+      <c r="W5">
+        <v>390.73500000000001</v>
+      </c>
+      <c r="X5">
+        <v>527.56899999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="2">
         <v>-2E-3</v>
       </c>
@@ -4961,8 +5012,20 @@
       <c r="G6">
         <v>527.04700000000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="S6" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="U6">
+        <v>141.696</v>
+      </c>
+      <c r="W6">
+        <v>390.35300000000001</v>
+      </c>
+      <c r="X6">
+        <v>527.04700000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
       <c r="B7" s="2">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -4975,8 +5038,20 @@
       <c r="G7">
         <v>526.68499999999995</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="S7" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="U7">
+        <v>141.47499999999999</v>
+      </c>
+      <c r="W7">
+        <v>389.89100000000002</v>
+      </c>
+      <c r="X7">
+        <v>526.68499999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
       <c r="B8" s="2">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -4989,8 +5064,20 @@
       <c r="G8">
         <v>526.32399999999996</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="S8" s="2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="U8">
+        <v>141.33500000000001</v>
+      </c>
+      <c r="W8">
+        <v>389.32900000000001</v>
+      </c>
+      <c r="X8">
+        <v>526.32399999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="2">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -5003,8 +5090,20 @@
       <c r="G9">
         <v>525.84199999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="S9" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="U9">
+        <v>141.17400000000001</v>
+      </c>
+      <c r="W9">
+        <v>388.92700000000002</v>
+      </c>
+      <c r="X9">
+        <v>525.84199999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
       <c r="B10" s="2">
         <v>-0.01</v>
       </c>
@@ -5020,8 +5119,23 @@
       <c r="G10">
         <v>523.59199999999998</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="S10" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="T10">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="U10">
+        <v>140.04900000000001</v>
+      </c>
+      <c r="W10">
+        <v>386.89800000000002</v>
+      </c>
+      <c r="X10">
+        <v>523.59199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
       <c r="B11" s="2">
         <v>-1.4999999999999999E-2</v>
       </c>
@@ -5037,8 +5151,23 @@
       <c r="G11">
         <v>521.58199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="S11" s="2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>71.983000000000004</v>
+      </c>
+      <c r="U11">
+        <v>138.904</v>
+      </c>
+      <c r="W11">
+        <v>384.32600000000002</v>
+      </c>
+      <c r="X11">
+        <v>521.58199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
       <c r="B12" s="2">
         <v>-0.02</v>
       </c>
@@ -5057,8 +5186,26 @@
       <c r="G12">
         <v>519.79399999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="S12" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="T12">
+        <v>71.138999999999996</v>
+      </c>
+      <c r="U12">
+        <v>138.04</v>
+      </c>
+      <c r="V12">
+        <v>274.51299999999998</v>
+      </c>
+      <c r="W12">
+        <v>382.35700000000003</v>
+      </c>
+      <c r="X12">
+        <v>519.79399999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13" s="2">
         <v>-0.03</v>
       </c>
@@ -5077,8 +5224,26 @@
       <c r="G13">
         <v>515.99699999999996</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="S13" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="T13">
+        <v>69.372</v>
+      </c>
+      <c r="U13">
+        <v>136.11099999999999</v>
+      </c>
+      <c r="V13">
+        <v>270.67599999999999</v>
+      </c>
+      <c r="W13">
+        <v>378.37900000000002</v>
+      </c>
+      <c r="X13">
+        <v>515.99699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14" s="2">
         <v>-3.5000000000000003E-2</v>
       </c>
@@ -5097,8 +5262,26 @@
       <c r="G14">
         <v>514.27</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="S14" s="2">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="T14">
+        <v>68.367000000000004</v>
+      </c>
+      <c r="U14">
+        <v>135.18700000000001</v>
+      </c>
+      <c r="V14">
+        <v>269.209</v>
+      </c>
+      <c r="W14">
+        <v>376.51100000000002</v>
+      </c>
+      <c r="X14">
+        <v>514.27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
       <c r="B15" s="2">
         <v>-0.04</v>
       </c>
@@ -5117,8 +5300,26 @@
       <c r="G15">
         <v>512.44100000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="S15" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="T15">
+        <v>67.805000000000007</v>
+      </c>
+      <c r="U15">
+        <v>134.404</v>
+      </c>
+      <c r="V15">
+        <v>267.642</v>
+      </c>
+      <c r="W15">
+        <v>374.42200000000003</v>
+      </c>
+      <c r="X15">
+        <v>512.44100000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -5136,8 +5337,25 @@
         <f>(G15-G4)/G4*100</f>
         <v>-2.9304181954912694</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3">
+        <f>(U15-U4)/U4*100</f>
+        <v>-5.4817544427176106</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
+        <f>(W15-W4)/W4*100</f>
+        <v>-4.2979063841098863</v>
+      </c>
+      <c r="X16" s="3">
+        <f>(X15-X4)/X4*100</f>
+        <v>-2.9304181954912694</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -5155,8 +5373,25 @@
         <f>G15-G4</f>
         <v>-15.469999999999914</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3">
+        <f>U15-U4</f>
+        <v>-7.7950000000000159</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3">
+        <f>W15-W4</f>
+        <v>-16.814999999999998</v>
+      </c>
+      <c r="X17" s="3">
+        <f>X15-X4</f>
+        <v>-15.469999999999914</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -5166,6 +5401,17 @@
       </c>
       <c r="E18" s="3">
         <f>(E15-281.26)/281.26*100</f>
+        <v>-4.8417834032567715</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="22">
+        <f>(T15-75.012)/75.012*100</f>
+        <v>-9.6077960859595724</v>
+      </c>
+      <c r="V18" s="3">
+        <f>(V15-281.26)/281.26*100</f>
         <v>-4.8417834032567715</v>
       </c>
     </row>
@@ -5185,7 +5431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
